--- a/Расписание демо-версии.xlsx
+++ b/Расписание демо-версии.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RenGames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RenGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E06E8A83-CA5A-4866-AC4C-ED38553F799B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE99B8-1099-42D8-9D12-A42123AC15BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{EF6DC8B5-B815-4D82-AC60-A9BA71472838}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF6DC8B5-B815-4D82-AC60-A9BA71472838}"/>
   </bookViews>
   <sheets>
     <sheet name="Алиса" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
   <si>
     <t>время / день</t>
   </si>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,6 +573,102 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,15 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,85 +756,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,90 +835,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,6 +864,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -916,6 +883,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1234,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D067D95F-FBF6-4D7C-8674-92BF645DC746}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,141 +1279,141 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1419,14 +1425,14 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="67" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="40" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1437,85 +1443,85 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="40"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="42"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="7" t="s">
-        <v>41</v>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>44</v>
@@ -1525,86 +1531,95 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B24:H25"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H14:H18"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B2:H2"/>
@@ -1616,14 +1631,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B24:H25"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H14:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1634,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CC17B0-FB6C-4A81-9F65-B499EAB93669}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,147 +1680,147 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="86"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="95" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1821,29 +1828,29 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="67" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="79" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="93" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1851,156 +1858,166 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="61" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="63"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="83" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="84"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="85" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="86"/>
+      <c r="H18" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
       <c r="G19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>44</v>
+      <c r="H19" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="11" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H25"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B2:H7"/>
@@ -2010,15 +2027,6 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H25"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2028,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3303BF91-B164-4059-B291-5FEE051A1ABD}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,141 +2075,141 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
@@ -2213,188 +2221,193 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="123" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="42"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="101" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="103"/>
+      <c r="H17" s="110"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="28" t="s">
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="34" t="s">
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="39"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="123"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="98"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="83" t="s">
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="84"/>
+      <c r="H25" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B2:H8"/>
@@ -2409,17 +2422,27 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="G19:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010076B17D6FF6B2464E8D5E9E5049768A9D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cec9cd2601139111da8b3d412167f40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="06e2ff52-03da-4415-8436-33f94cb6c1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f3955242adfd91f6918544392b63add" ns3:_="">
     <xsd:import namespace="06e2ff52-03da-4415-8436-33f94cb6c1dc"/>
@@ -2551,35 +2574,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3E6B14-18FF-4104-9183-D89A3BF1C13C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F48078-FF95-49E0-AAEB-3FD7B3AC33AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="06e2ff52-03da-4415-8436-33f94cb6c1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2601,9 +2599,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F48078-FF95-49E0-AAEB-3FD7B3AC33AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3E6B14-18FF-4104-9183-D89A3BF1C13C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="06e2ff52-03da-4415-8436-33f94cb6c1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>